--- a/docs/DVM_table_view_comments.xlsx
+++ b/docs/DVM_table_view_comments.xlsx
@@ -412,7 +412,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t>Data Streams (View)
-This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary</t>
+This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary and determines if the parent table exists and if the parent table has been enabled in the DVM</t>
         </is>
       </c>
     </row>

--- a/docs/DVM_table_view_comments.xlsx
+++ b/docs/DVM_table_view_comments.xlsx
@@ -424,52 +424,52 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>DVM_DS_PTA_RULE_SETS_V</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DVM Data Stream PTA Rule Sets (View)
+This view returns PTA rule sets and associated data streams to provide information about which parent issue records have been evaluated with which rule sets</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>DVM_PTA_ISSUES_V</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>PTA Issues (View)
 This View returns all Validation Issues associated with a given PTA Validation Issue record that were identified during the last evaluation of the associated Validation Issue Types.  A PTA Validation Issue record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each issue identified as well as general information about the given Validation Issue's Issue Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>DVM_PTA_ISS_TYPES_V</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>PTA Issue Types (View)
 This View retrieves all Validation Rule Sets and corresponding Validation Rules for a given Parent Issue Record and corresponding data stream(s).  The associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Issue Types that were associated with the data stream when the given parent record is first evaluated using the DVM</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DVM_PTA_RULE_SETS_V</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>DVM PTA Rule Sets (View)
-This view returns all of the rule sets and associated data streams as well as all PTA rule sets to provide information about which parent issue records have been evaluated with which rule sets</t>
-        </is>
-      </c>
-    </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
@@ -478,28 +478,82 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>DVM_PTA_RULE_SETS_RPT_V</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DVM PTA Rule Sets Report (View)
+This view returns the parent issue record information and their associated validation rule sets and corresponding validation criteria.  This standard report query can be combined with data set-specific information to generate a standard validation rule report that can be included with the data set metadata or as an internal report to provide the specific data quality control criteria that was used to validate each parent record if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DVM_PTA_RULE_SETS_V</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DVM PTA Rule Sets (View)
+This view returns all of the rule set information and related tables as well as associated data streams as well as all PTA rule sets to provide information about which parent issue records have been evaluated with which rule sets</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>DVM_QC_MSG_MISS_FIELDS_V</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Data Validation Module Missing Template Field References QC (View)
 This query returns all issue types (DVM_ISS_TYPES) that have a ISS_TYPE_COMMENT_TEMPLATE or APP_LINK_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary). The [APP_ID] and [APP_SESSION] are special reserved placeholders that are intended to be used by a given APEX application and replaced at runtime by the APEX application variables so they are not identified in this QC query.  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_ISS_DESC_FIELDS and MISSING_APP_LINK_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object for the issue description templates and application link templates respectively.</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DVM_RULE_SETS_RPT_V</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Data Validation Rule Sets Report (View)
+This view returns a subset of the Data Validation Rule Sets (DVM_RULE_SETS_V) view suitable for inclusion in a report for which validation rule sets were active in which periods over time.  This standard report can be included with the data set metadata to provide the specific data quality control criteria that was used to validate each data stream over time</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>DVM_RULE_SETS_V</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Data Validation Rule Sets (View)
 This View returns all Data Validation Rule Sets and associated validation criteria</t>

--- a/docs/DVM_table_view_comments.xlsx
+++ b/docs/DVM_table_view_comments.xlsx
@@ -321,8 +321,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DVM PTA Rule Sets
-This table defines the relationship between validation rule sets (DVM_RULE_SETS) and the individual PTA parent issue record (DVM_PTA_ISSUES) that is associated with a given parent record.  This table is used to track which rule sets were used to evaluate which parent records.</t>
+          <t>History tracking table for DVM_PTA_RULE_SETS implemented using the DSC.DSC_CRE_HIST_OBJS_PKG package</t>
         </is>
       </c>
     </row>
@@ -334,226 +333,293 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>DVM_PTA_RULE_SETS_HIST</t>
+        </is>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>DVM_QC_OBJECTS</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Data QC Objects
 This is a reference table that defines all of the QC validation views that are executed on the data model after a given data stream is loaded into the database (e.g. SPT_VESSEL_TRIPS, SPT_UL_TRANSACTIONS, SPT_APP_XML_FILES).</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>TABLE</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>DVM_QC_OBJECTS_HIST</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Data QC Objects (history table)
 This history table was implemented using the data history tracking package (svn://badfish.pifsc.gov/Oracle/DSC/trunk/apps/db/dsc/dsc_pkgs) to track changes to the Data QC Objects (DVM_QC_OBJECTS) table</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TABLE</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>DVM_RULE_SETS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>DVM Rule Sets
 This table defines the different rule sets that were active over time.  As the active DVM validation criteria changes over time new rule set records will be added to define the time period that the corresponding error types were active.</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>DVM_CRITERIA_V</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Data Validation QC Criteria (View)
 This View returns all QC Criteria (Issue Types) defined in the database and their associated QC Object, Issue Severity, and Issue Category.  This query is used to define all PTA Issue Types when a data stream is first entered into the database</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>DVM_DATA_STREAMS_V</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Data Streams (View)
 This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary and determines if the parent table exists and if the parent table has been enabled in the DVM</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DVM_DS_PTA_RULE_SETS_HIST_V</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DVM Validation Rule Set Evaluation History (View)
+This view returns the date/time for each time the DVM was processed (FORMAT_EVAL_DATE) on a given parent record and associated data stream.  This query can be combined with data set-specific information to generate a standard DVM evaluation report that can be included with the data set metadata or as an internal report to provide the DVM rule set evaluation history for each parent record if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>DVM_DS_PTA_RULE_SETS_V</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>DVM Data Stream PTA Rule Sets (View)
 This view returns PTA rule sets and associated data streams to provide information about which parent issue records have been evaluated with which rule sets</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>DVM_PTA_ISSUES_V</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>PTA Issues (View)
 This View returns all Validation Issues associated with a given PTA Validation Issue record that were identified during the last evaluation of the associated Validation Issue Types.  A PTA Validation Issue record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each issue identified as well as general information about the given Validation Issue's Issue Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>DVM_PTA_ISS_TYPES_V</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>PTA Issue Types (View)
 This View retrieves all Validation Rule Sets and corresponding Validation Rules for a given Parent Issue Record and corresponding data stream(s).  The associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Issue Types that were associated with the data stream when the given parent record is first evaluated using the DVM</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DVM_PTA_RULE_SETS_HIST_RPT_V</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DVM PTA Validation Rule Evaluation History Report (View)
+This view returns a subset of fields from the PTA rule sets and associated validation rule sets and corresponding specific validation rules and data stream information for each date/time the DVM was processed (EVAL_DATE) on a given parent record.  This standard detailed report query can be combined with data set-specific information to generate a standard detailed DVM evaluation report that can be included with the data set metadata or as an internal report to provide information about each time the DVM was evaluated for which specific validation rules on a given parent record for each data stream if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DVM_PTA_RULE_SETS_HIST_V</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DVM PTA Validation Rule Evaluation History (View)
+This view returns PTA rule sets and associated validation rule sets and corresponding specific validation rules and data stream information for each date/time the DVM was processed (EVAL_DATE) on a given parent record.  This standard detailed report query can be combined with data set-specific information to generate a standard detailed DVM evaluation report that can be included with the data set metadata or as an internal report to provide information about each time the DVM was evaluated for which specific validation rules on a given parent record for each data stream if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>DVM_PTA_RULE_SETS_RPT_V</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>DVM PTA Rule Sets Report (View)
-This view returns the parent issue record information and their associated validation rule sets and corresponding validation criteria.  This standard report query can be combined with data set-specific information to generate a standard validation rule report that can be included with the data set metadata or as an internal report to provide the specific data quality control criteria that was used to validate each parent record if that level of detail is desired</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
+This view returns the parent issue record information and their associated validation rule sets and corresponding validation rules.  This standard report query can be combined with data set-specific information to generate a standard validation rule report that can be included with the data set metadata or as an internal report to provide the specific data quality control criteria that was used to validate each parent record if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>DVM_PTA_RULE_SETS_V</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>DVM PTA Rule Sets (View)
 This view returns all of the rule set information and related tables as well as associated data streams as well as all PTA rule sets to provide information about which parent issue records have been evaluated with which rule sets</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>DVM_QC_MSG_MISS_FIELDS_V</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Data Validation Module Missing Template Field References QC (View)
 This query returns all issue types (DVM_ISS_TYPES) that have a ISS_TYPE_COMMENT_TEMPLATE or APP_LINK_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary). The [APP_ID] and [APP_SESSION] are special reserved placeholders that are intended to be used by a given APEX application and replaced at runtime by the APEX application variables so they are not identified in this QC query.  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_ISS_DESC_FIELDS and MISSING_APP_LINK_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object for the issue description templates and application link templates respectively.</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>DVM_RULE_SETS_RPT_V</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Data Validation Rule Sets Report (View)
-This view returns a subset of the Data Validation Rule Sets (DVM_RULE_SETS_V) view suitable for inclusion in a report for which validation rule sets were active in which periods over time.  This standard report can be included with the data set metadata to provide the specific data quality control criteria that was used to validate each data stream over time</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
+This view returns a subset of the Data Validation Rule Sets (DVM_RULE_SETS_V) view suitable for inclusion in a report for which validation rule sets were active in which periods over time.  This query generates a standard validation rule report that can be included with the data set metadata to provide the specific data quality control criteria that was used to validate each data stream over time</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>DVM_RULE_SETS_V</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Data Validation Rule Sets (View)
 This View returns all Data Validation Rule Sets and associated validation criteria</t>

--- a/docs/DVM_table_view_comments.xlsx
+++ b/docs/DVM_table_view_comments.xlsx
@@ -321,7 +321,8 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>History tracking table for DVM_PTA_RULE_SETS implemented using the DSC.DSC_CRE_HIST_OBJS_PKG package</t>
+          <t>DVM PTA Rule Sets
+This table defines the relationship between validation rule sets (DVM_RULE_SETS) and the individual PTA parent error record (DVM_PTA_ERRORS) that is associated with a given parent record.  This table is used to track which rule sets were used to evaluate which parent records.</t>
         </is>
       </c>
     </row>
@@ -336,7 +337,11 @@
           <t>DVM_PTA_RULE_SETS_HIST</t>
         </is>
       </c>
-      <c r="C15"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>History tracking table for DVM_PTA_RULE_SETS implemented using the DSC.DSC_CRE_HIST_OBJS_PKG package</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -623,6 +628,114 @@
         <is>
           <t>Data Validation Rule Sets (View)
 This View returns all Data Validation Rule Sets and associated validation criteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DVM_STD_QC_ACT_RULE_SETS_V</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DVM QC Active Validation Rules/Rule Sets Query (Standard QC View)
+This QC view identifies all data streams with more than one active validation rule set (there should always only be one active rule set for each data stream).  This QC view also identifies all data streams with no active validation rules (in order to execute the DVM on a data stream on a new parent table there must be at least one active validation rule).  This view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The view contains two columns that are intended for UNION with other DVM Configuration QC Queries to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DVM_STD_QC_ALL_RPT_V</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DVM Standard All QC Report (Standard QC View)
+This QC view identifies all of the DVM configuration errors that can be feasibly identified by queries to help ensure that the DVM configuration is valid so the DVM functions properly.  Any rows returned by this query will need to be resolved before the DVM can process records successfully.  This view contains two columns to identify the configuration issue(s) and is intended to provide administrators the results of preliminary validation checks on the DVM configuration.  If this view does not execute successfully it is likely due to an invalid view and the ORA-20220 exception should be reported until the view errors have been resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DVM_STD_QC_DS_V</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DVM Data Stream Configuration QC Query (Standard QC View)
+This QC view identifies all instances of data streams with invalid values.  This view leverages the DVM_DATA_STREAMS_V view and uses the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The view contains two columns that are intended for UNION with other DVM Configuration QC Queries to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DVM_STD_QC_ISS_TEMPL_V</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DVM Issue Type Template Placeholders QC Query (Standard QC View)
+This QC view identifies all Validation Issue Types configured in the DVM that have one or more placeholders in the issue description template or application link template values that do not exist in the corresponding DVM QC view.  This view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The view contains two columns that are intended for UNION with other DVM Configuration QC Queries to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DVM_STD_QC_MISS_CONFIG_V</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DVM QC Missing Data Streams/Validation Rules Query (Standard QC View)
+This QC view identifies when there are no data streams (DVM_DATA_STREAMS) or validation rules (DVM_ISS_TYPES) records defined in the database, this indicates that the DVM instance has not been configured yet.  The DVM requires at least one data stream and one validation rule to be defined before the DVM can be executed.  This view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The view contains two columns that are intended for UNION with other DVM Configuration QC Queries to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DVM_STD_QC_VIEW_V</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DVM QC Object QC Query (Standard QC View)
+This QC view identifies all QC objects configured in the DVM that are either missing or are invalid.  This view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The view contains two columns that are intended for UNION with other DVM Configuration QC Queries to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
         </is>
       </c>
     </row>

--- a/docs/DVM_table_view_comments.xlsx
+++ b/docs/DVM_table_view_comments.xlsx
@@ -411,7 +411,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t>Data Validation QC Criteria (View)
-This View returns all QC Criteria (Issue Types) defined in the database and their associated QC Object, Issue Severity, and Issue Category.  This query is used to define all PTA Issue Types when a data stream is first entered into the database</t>
+This View returns all data QC Criteria (Issue Types) defined in the database and their associated QC Object, Issue Severity, and Issue Category.  This query is used to define all PTA Issue Types when a data stream is first entered into the database</t>
         </is>
       </c>
     </row>

--- a/docs/DVM_table_view_comments.xlsx
+++ b/docs/DVM_table_view_comments.xlsx
@@ -429,7 +429,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t>Data Streams (View)
-This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary and determines if the parent table exists and if the parent table has been enabled in the DVM</t>
+This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary and determines if the parent table exists and if the parent table has been enabled in the DVM.  If the parent table does not have a primary key or has a compound primary key the DATA_STREAM_PK_FIELD field will be null</t>
         </is>
       </c>
     </row>
@@ -644,8 +644,8 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DVM QC Active Validation Rules/Rule Sets Query (Standard QC View)
-This QC view identifies all data streams with more than one active validation rule set (there should always only be one active rule set for each data stream).  This QC view also identifies all data streams with no active validation rules (in order to execute the DVM on a data stream on a new parent table there must be at least one active validation rule).  This view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The view contains two columns that are intended for UNION with other DVM Configuration QC Queries to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+          <t>DVM Standard Configuration QC Active Validation Rules/Rule Sets Query (Standard QC View)
+This DVM configuration QC view identifies all data streams with more than one active validation rule set (there should always only be one active rule set for each data stream).  This configuration QC view also identifies all data streams with no active validation rules (in order to execute the DVM on a data stream on a new parent table there must be at least one active validation rule).  This configuration QC view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
         </is>
       </c>
     </row>
@@ -662,8 +662,8 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DVM Standard All QC Report (Standard QC View)
-This QC view identifies all of the DVM configuration errors that can be feasibly identified by queries to help ensure that the DVM configuration is valid so the DVM functions properly.  Any rows returned by this query will need to be resolved before the DVM can process records successfully.  This view contains two columns to identify the configuration issue(s) and is intended to provide administrators the results of preliminary validation checks on the DVM configuration.  If this view does not execute successfully it is likely due to an invalid view and the ORA-20220 exception should be reported until the view errors have been resolved</t>
+          <t>DVM Standard Configuration QC Combined Report (Standard QC View)
+This DVM configuration QC view identifies all of the DVM configuration errors that can be feasibly identified by views to help ensure that the DVM configuration is valid to help ensure the DVM functions properly.  Any rows returned by this view will need to be resolved before the DVM can process records successfully.  This configuration QC view contains two columns to identify the configuration issue(s) and is intended to provide administrators the results of preliminary validation checks on the DVM configuration.  If this configuration QC view does not execute successfully it is likely due to an invalid view and the ORA-20220 exception should be reported until the data QC view errors have been resolved</t>
         </is>
       </c>
     </row>
@@ -680,8 +680,8 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DVM Data Stream Configuration QC Query (Standard QC View)
-This QC view identifies all instances of data streams with invalid values.  This view leverages the DVM_DATA_STREAMS_V view and uses the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The view contains two columns that are intended for UNION with other DVM Configuration QC Queries to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+          <t>DVM Standard Configuration QC Data Stream Parent Table Query (Standard QC View)
+This DVM Configuration QC view identifies all instances of data streams with invalid values.  This view leverages the DVM_DATA_STREAMS_V view and uses the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
         </is>
       </c>
     </row>
@@ -698,8 +698,8 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DVM Issue Type Template Placeholders QC Query (Standard QC View)
-This QC view identifies all Validation Issue Types configured in the DVM that have one or more placeholders in the issue description template or application link template values that do not exist in the corresponding DVM QC view.  This view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The view contains two columns that are intended for UNION with other DVM Configuration QC Queries to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+          <t>DVM Standard Configuration QC Issue Type Template Placeholders Query (Standard QC View)
+This DVM configuration QC view identifies all Validation Issue Types configured in the DVM that have one or more placeholders in the issue description template or application link template values that do not exist in the corresponding DVM data QC view.  This configuration QC view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
         </is>
       </c>
     </row>
@@ -716,8 +716,8 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DVM QC Missing Data Streams/Validation Rules Query (Standard QC View)
-This QC view identifies when there are no data streams (DVM_DATA_STREAMS) or validation rules (DVM_ISS_TYPES) records defined in the database, this indicates that the DVM instance has not been configured yet.  The DVM requires at least one data stream and one validation rule to be defined before the DVM can be executed.  This view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The view contains two columns that are intended for UNION with other DVM Configuration QC Queries to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+          <t>DVM Standard Configuration QC Missing Data Streams/Validation Rules Query (Standard QC View)
+This DVM configuration QC view identifies when there are no data streams (DVM_DATA_STREAMS) or validation rules (DVM_ISS_TYPES) records defined in the database, this indicates that the DVM instance has not been configured yet.  The DVM requires at least one data stream and one validation rule to be defined before the DVM can be executed.  This configuration QC view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
         </is>
       </c>
     </row>
@@ -734,8 +734,8 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DVM QC Object QC Query (Standard QC View)
-This QC view identifies all QC objects configured in the DVM that are either missing or are invalid.  This view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The view contains two columns that are intended for UNION with other DVM Configuration QC Queries to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+          <t>DVM Standard Configuration QC data QC Object Query (Standard QC View)
+This DVM configuration QC view identifies all data QC objects configured in the DVM that are either missing or are invalid.  This configuration QC view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
         </is>
       </c>
     </row>

--- a/docs/DVM_table_view_comments.xlsx
+++ b/docs/DVM_table_view_comments.xlsx
@@ -693,46 +693,82 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>DVM_STD_QC_DS_VIEWS_V</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DVM Standard Data Stream Parent Table Data QC View  Query (Standard QC View)
+This Data QC View Primary Key QC view identifies all Data QC Views that do not contain the primary key field of the associated parent table, this will prevent the data QC view from being processed successfully.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DVM_STD_QC_IND_FIELDS_V</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DVM Standard Indicator Field Data QC Object Query (Standard QC View)
+This DVM configuration QC view identifies all validation rules that have an indicator field defined that does not match a corresponding data QC view object's result set field or it has a non-character data type.  This view uses the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>DVM_STD_QC_ISS_TEMPL_V</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>DVM Standard Configuration QC Issue Type Template Placeholders Query (Standard QC View)
 This DVM configuration QC view identifies all Validation Issue Types configured in the DVM that have one or more placeholders in the issue description template or application link template values that do not exist in the corresponding DVM data QC view.  This configuration QC view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>DVM_STD_QC_MISS_CONFIG_V</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>DVM Standard Configuration QC Missing Data Streams/Validation Rules Query (Standard QC View)
 This DVM configuration QC view identifies when there are no data streams (DVM_DATA_STREAMS) or validation rules (DVM_ISS_TYPES) records defined in the database, this indicates that the DVM instance has not been configured yet.  The DVM requires at least one data stream and one validation rule to be defined before the DVM can be executed.  This configuration QC view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>VIEW</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>VIEW</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>DVM_STD_QC_VIEW_V</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>DVM Standard Configuration QC data QC Object Query (Standard QC View)
 This DVM configuration QC view identifies all data QC objects configured in the DVM that are either missing or are invalid.  This configuration QC view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
